--- a/Scalping.xlsx
+++ b/Scalping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>Người thực hiện:</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>Khi này ta chỉ cần kẻ RT ra là xong</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -844,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F253" sqref="F253"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,6 +1449,11 @@
         <v>102</v>
       </c>
     </row>
+    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>83</v>

--- a/Scalping.xlsx
+++ b/Scalping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Người thực hiện:</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Tăng nhanh, giảm nhanh</t>
   </si>
   <si>
-    <t>Nếu giá tăng mà nhanh, thì nó cũng sẽ nhanh chóng quay lại retest lại vùng sinh ra nó</t>
-  </si>
-  <si>
     <t>Breakout</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>Thì ta sẽ chú ý quan sát keylevel mới này nhiều hơn là keylevel cũ</t>
   </si>
   <si>
-    <t xml:space="preserve">Quy tắc </t>
-  </si>
-  <si>
     <t>Retest</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>Bức tranh toàn cảnh</t>
   </si>
   <si>
-    <t>Ta thấy thị trường khá là tuân thủ 4 quy tắc được tạo ra</t>
-  </si>
-  <si>
     <t>Cơ bản</t>
   </si>
   <si>
@@ -183,9 +174,6 @@
     <t>Giả sử một xu hướng tăng xuất hiện</t>
   </si>
   <si>
-    <t>Ta sẽ bắt đỉnh</t>
-  </si>
-  <si>
     <t>Đầu tiên nếu đang tăng thì nến sẽ là nến vàng</t>
   </si>
   <si>
@@ -225,9 +213,6 @@
     <t>Tiếp tục xu hướng tăng, chờ cây nến đỏ tiếp theo ở vùng cao hơn</t>
   </si>
   <si>
-    <t>nếu có thân nằm ngang qua thì đã hình thành đỉnh, vào sell</t>
-  </si>
-  <si>
     <t>nếu cây nến đỏ chỉ có râu hay đầu chạm nhẹ vào ngưỡng đó thì phải canh cây nến tiếp theo</t>
   </si>
   <si>
@@ -237,9 +222,6 @@
     <t>Tính RT như hình dưới đây</t>
   </si>
   <si>
-    <t>Phá và Retest là linh hồn của thị trường, mọi quy luật của thị trường luôn xoay quay phá và retest</t>
-  </si>
-  <si>
     <t>Thấu hiểu Price Action</t>
   </si>
   <si>
@@ -330,14 +312,113 @@
     <t>Khi này ta chỉ cần kẻ RT ra là xong</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>Nếu giá tăng mà nhanh, thì nó cũng sẽ nhanh chóng giảm, nhưng giảm tới đâu thì không rõ</t>
+  </si>
+  <si>
+    <t>Khái niệm này bao hàm tất cả các khái niệm bên trên, đúng từ sóng siêu nhỏ đến siêu to khổng lồ</t>
+  </si>
+  <si>
+    <t>Ta thấy thị trường khá là tuân thủ các quy tắc được tạo ra</t>
+  </si>
+  <si>
+    <t>Ta sẽ vào lệnh và chờ đến khi đỉnh hình thành thì sẽ thoát lệnh</t>
+  </si>
+  <si>
+    <t>Ta sẽ bắt đỉnh như nào</t>
+  </si>
+  <si>
+    <t>nếu có thân nằm ngang qua thì đã hình thành đỉnh, vào sell hoặc takeprofit của lệnh buy đã vào trước đó</t>
+  </si>
+  <si>
+    <t>Tìm điểm đảo chiều(nên tìm điểm dảo chiều theo đúng xu hướng lớn thì khả năng thắng vẫn là cao nhất)</t>
+  </si>
+  <si>
+    <t>Chú ý là sau khi sóng tăng vài nhịp mạnh thì sẽ xuất hiện sóng đảo chiều mạnh, nên phải nhìn vào khung thời gian lớn tìm điểm đảo chiều của xu hướng lớn để còn vào lệnh sao cho phù hợp</t>
+  </si>
+  <si>
+    <t>Giả sử ta thấy xu hướng đang tăng, giá liên tục phá đỉnh mới, nên chờ sóng hồi và xuất hiện điểm đảo chiều cho xu hướng tăng đó thì vào lệnh</t>
+  </si>
+  <si>
+    <t>Dấu hiệu xu hướng đảo chiều lớn cũng dựa trên cách tính xu hướng đảo chiều nhỏ thôi</t>
+  </si>
+  <si>
+    <t>Đó là</t>
+  </si>
+  <si>
+    <t>Giá khi test lại không tạo ra đỉnh mới cao hơn đỉnh cũ</t>
+  </si>
+  <si>
+    <t>Hình thành ngưỡng RT và phá vỡ ngưỡng RT đó</t>
+  </si>
+  <si>
+    <t>Xem các mô hình nến đảo chiều</t>
+  </si>
+  <si>
+    <t>Giá phá vỡ keylevel hình thành sóng tăng đó</t>
+  </si>
+  <si>
+    <t>Ta có thể dựa vào RT để xác định xu hướng</t>
+  </si>
+  <si>
+    <t>Giả sử khi giá phá qua cái đáy gần nhất thì ta kẻ một cái đường qua cái đỉnh trên nó</t>
+  </si>
+  <si>
+    <t>Hoặc khi giá phá qua cái đỉnh gần nhất thì ta kẻ một cái đường qua cái đáy dưới nó</t>
+  </si>
+  <si>
+    <t>Khi ta thấy RT xuất hiện đều và ổn định</t>
+  </si>
+  <si>
+    <t>Giả sử RT tăng dần thì ta chỉ cần vào lệnh buy</t>
+  </si>
+  <si>
+    <t>Giả sử RT giảm dần thì ta chỉ cần vào lệnh sell</t>
+  </si>
+  <si>
+    <t>Khi thấy ngưỡng RT đang chạy đều mà bị phá vỡ thì hãy cẩn thận vì có khả năng đảo chiều khá cao(nếu mà gần những keylevel của xu hướng lớn hơn như H1 hay H4)</t>
+  </si>
+  <si>
+    <t>Nếu ta thấy RT tăng giảm lẫn lộn thì đừng vào lệnh do lúc này thị trường đang tranh chấp mạnh giữa phe mua và phe bán</t>
+  </si>
+  <si>
+    <t>Đợi khi giá phá qua vùng tranh chấp, RT di chuyển đều và ổn định thì mới vào lệnh</t>
+  </si>
+  <si>
+    <t>có nhiều cách takeprofit</t>
+  </si>
+  <si>
+    <t>theo keylevel lớn(nơi khả năng giá có thể đi đến đó)</t>
+  </si>
+  <si>
+    <t>theo điểm dảo chiều mới(cái này thì phải ngồi canh)</t>
+  </si>
+  <si>
+    <t>Always retest</t>
+  </si>
+  <si>
+    <t>Thị trường luôn luôn retest, cho đến khi retest thất bại thì đảo chiều</t>
+  </si>
+  <si>
+    <t>Phá và Retest là linh hồn của thị trường, mọi quy luật của thị trường luôn xoay quanh phá và retest</t>
+  </si>
+  <si>
+    <t>Ít nhất là retest một lần, những vùng quan trọng thì sẽ retest nhiều hơn</t>
+  </si>
+  <si>
+    <t>Nơi khởi nguồn con sóng(keylevel)</t>
+  </si>
+  <si>
+    <t>Sóng bắt đầu từ gió, gió bắt đầu từ đâu, em cũng không biết nữa, khi nào ta yêu nhau!</t>
+  </si>
+  <si>
+    <t>Tất cả các tài liệu chỉ viết ví dụ cho trường hợp là tăng, còn giảm thì cũng tương tự</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +460,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF3986EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -400,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -408,6 +496,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,13 +520,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>229416</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>189428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -469,13 +558,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>212200</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>179903</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -507,13 +596,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>93345</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>189428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -545,13 +634,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3338</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>7038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>231347</xdr:colOff>
-      <xdr:row>342</xdr:row>
+      <xdr:row>364</xdr:row>
       <xdr:rowOff>5966</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -571,6 +660,44 @@
         <a:xfrm>
           <a:off x="608456" y="57650097"/>
           <a:ext cx="15075803" cy="8571428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>93345</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>189428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="49101375"/>
+          <a:ext cx="15238095" cy="8571428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -845,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T357"/>
+  <dimension ref="A1:T397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C247" sqref="C247"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1137,7 @@
     </row>
     <row r="12" spans="1:10" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1049,489 +1176,634 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>23</v>
       </c>
-      <c r="C32">
+      <c r="C34">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C44">
         <v>4</v>
       </c>
-      <c r="D42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>87</v>
+      <c r="D44" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
+    <row r="60" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B60" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+      <c r="J74" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C55">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="178" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="182" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="183" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="184" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="185" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="186" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="187" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>56</v>
+      </c>
+      <c r="F187" t="s">
+        <v>57</v>
+      </c>
+      <c r="J187">
         <v>1</v>
       </c>
-      <c r="D55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C56">
+      <c r="K187" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="188" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F188" t="s">
+        <v>58</v>
+      </c>
+      <c r="J188">
         <v>2</v>
       </c>
-      <c r="D56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C57">
+      <c r="K188" t="s">
+        <v>61</v>
+      </c>
+      <c r="T188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F189" t="s">
+        <v>59</v>
+      </c>
+      <c r="J189">
         <v>3</v>
       </c>
-      <c r="D57" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C58">
-        <v>4</v>
-      </c>
-      <c r="D58" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C59">
-        <v>5</v>
-      </c>
-      <c r="D59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>38</v>
-      </c>
-      <c r="J64" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="168" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C168" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="169" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C169" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="170" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C170" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="171" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C171" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="172" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C172" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="173" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C173" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="174" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C174" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="175" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C175" t="s">
-        <v>60</v>
-      </c>
-      <c r="F175" t="s">
-        <v>61</v>
-      </c>
-      <c r="J175">
-        <v>1</v>
-      </c>
-      <c r="K175" t="s">
+      <c r="K189" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="191" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J191">
+        <v>2</v>
+      </c>
+      <c r="K191" t="s">
+        <v>62</v>
+      </c>
+      <c r="N191" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="176" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="F176" t="s">
-        <v>62</v>
-      </c>
-      <c r="J176">
-        <v>2</v>
-      </c>
-      <c r="K176" t="s">
+    <row r="192" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N192" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
         <v>65</v>
       </c>
-      <c r="T176">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F177" t="s">
-        <v>63</v>
-      </c>
-      <c r="J177">
-        <v>3</v>
-      </c>
-      <c r="K177" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="179" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="J179">
-        <v>2</v>
-      </c>
-      <c r="K179" t="s">
-        <v>66</v>
-      </c>
-      <c r="N179" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="180" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="N180" t="s">
+    </row>
+    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C244" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C231" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C232" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C233" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C235" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C237" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D238" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D239" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D240" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C242" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D243" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D244" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="245" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D245" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D246" t="s">
-        <v>102</v>
+      <c r="C245" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="247" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C247" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D252" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D255" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D256" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D257" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D258" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D260" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D261" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D262" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D263" t="s">
+        <v>115</v>
+      </c>
+      <c r="F263" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F264" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D265" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D266" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D267" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="369" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="371" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="372" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="373" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="374" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>87</v>
+      </c>
+      <c r="E374" t="s">
+        <v>121</v>
+      </c>
+      <c r="H374" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="375" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>88</v>
+      </c>
+      <c r="H375" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="376" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="377" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="378" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="379" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="380" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B380" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="383" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B383" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B294" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B295" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B296" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B345" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B346" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B347" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B348" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B349" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B350" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B351" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B352" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B353" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B354" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B355" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B356" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B357" t="s">
-        <v>99</v>
+    <row r="384" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>107</v>
+      </c>
+      <c r="D387" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D388" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D389" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D390" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B395" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="C397" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Scalping.xlsx
+++ b/Scalping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Người thực hiện:</t>
   </si>
@@ -412,13 +412,16 @@
   </si>
   <si>
     <t>Tất cả các tài liệu chỉ viết ví dụ cho trường hợp là tăng, còn giảm thì cũng tương tự</t>
+  </si>
+  <si>
+    <t>Lĩnh ngộ tinh túy thị trường</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +470,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -488,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -497,6 +508,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,7 +987,7 @@
   <dimension ref="A1:T397"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +995,7 @@
     <col min="4" max="4" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="90" x14ac:dyDescent="1.1499999999999999">
+    <row r="1" spans="1:12" ht="90" x14ac:dyDescent="1.1499999999999999">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -997,7 +1009,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1009,7 +1021,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1037,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1041,7 +1053,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1053,7 +1065,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1069,7 +1081,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1083,7 +1095,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1097,7 +1109,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1109,7 +1121,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1125,7 +1137,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1135,7 +1147,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="34.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>94</v>
       </c>
@@ -1148,7 +1160,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1160,7 +1172,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -1175,8 +1187,11 @@
       <c r="H14" s="5"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L14" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1188,7 +1203,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>130</v>
       </c>
